--- a/test/regression/commands/general/FillRegression/ExpectedResults/Test_FillRegression_Streamflow_Month_OneEquation_Transformed_excel.xlsx
+++ b/test/regression/commands/general/FillRegression/ExpectedResults/Test_FillRegression_Streamflow_Month_OneEquation_Transformed_excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22995" windowHeight="10035" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Notes" sheetId="5" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="236">
   <si>
     <t>1997-01</t>
   </si>
@@ -1066,7 +1066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -6981,7 +6981,7 @@
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7258,7 +7258,7 @@
         <v>222</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2"/>
       <c r="M2">
@@ -7405,14 +7405,17 @@
         <v>40.080333962132094</v>
       </c>
       <c r="AW2">
-        <f>_xlfn.T.INV(M2/100,N2-2)</f>
-        <v>0.52822122736447541</v>
+        <f>ABS(_xlfn.T.INV((100 - M2)/200,N2-2))</f>
+        <v>1.0487936214894282</v>
       </c>
       <c r="AX2" t="str">
         <f>IF(AV2&gt;AW2,"Yes","No")</f>
         <v>Yes</v>
       </c>
-      <c r="AY2"/>
+      <c r="AY2" t="str">
+        <f>IF(N2&gt;=K2,"Yes","No")</f>
+        <v>Yes</v>
+      </c>
       <c r="AZ2"/>
       <c r="BA2">
         <f>COUNT(Data!J65:J155)</f>
@@ -7444,7 +7447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BD1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -7649,7 +7652,7 @@
         <v>222</v>
       </c>
       <c r="K1" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M1" s="1">
         <v>70</v>
@@ -7760,9 +7763,12 @@
         <v>40.080333962132094</v>
       </c>
       <c r="AW1" s="1">
-        <v>0.52822122736447541</v>
+        <v>1.0487936214894282</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="AY1" s="1" t="s">
         <v>172</v>
       </c>
       <c r="BA1" s="1">
